--- a/controllers/Complaints.xlsx
+++ b/controllers/Complaints.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Complaints" state="show" r:id="rId4"/>
+    <sheet sheetId="1" name="June" state="show" r:id="rId4"/>
+    <sheet sheetId="2" name="May" state="show" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Subject</t>
   </si>
@@ -28,7 +29,7 @@
     <t>Tuesday, 5th Jun 2018</t>
   </si>
   <si>
-    <t>resolved</t>
+    <t>Resolved</t>
   </si>
   <si>
     <t>Hostel</t>
@@ -37,7 +38,7 @@
     <t>Monday, 11th Jun 2018</t>
   </si>
   <si>
-    <t>pending</t>
+    <t>Pending</t>
   </si>
   <si>
     <t>Cab Share</t>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>Saturday, 9th Jun 2018</t>
+  </si>
+  <si>
+    <t>Complaint about complaints</t>
+  </si>
+  <si>
+    <t>Wednesday, 2nd May 2018</t>
   </si>
 </sst>
 </file>
@@ -493,4 +500,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>